--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
   <si>
     <t>Bug List</t>
   </si>
@@ -252,10 +252,10 @@
     <t>Adding item to cauldron removes multiple counts from player inventory</t>
   </si>
   <si>
+    <t>Only one count of the item should be dropped into the item at a time</t>
+  </si>
+  <si>
     <t>Sometimes dragging one item to cauldron will remove multiple counts of it</t>
-  </si>
-  <si>
-    <t>Only one count of the item should be dropped into the item at a time</t>
   </si>
   <si>
     <t>Doesn't always happen
@@ -275,13 +275,71 @@
 2. Pick up the item</t>
   </si>
   <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>Re-opening a cauldron produces an assert error</t>
+  </si>
+  <si>
+    <t>A cauldron should be able to be re-opened and should be the same entity that was created when the game started</t>
+  </si>
+  <si>
+    <t>Entity not in registry error</t>
+  </si>
+  <si>
+    <t>1. Open a cauldron
+2. Restart the game - immediate error
+3. Or leave the grotto and re-enter
+4. Try opening the cauldron again</t>
+  </si>
+  <si>
+    <t>Drag empty slot into cauldron causes crash</t>
+  </si>
+  <si>
+    <t>Dragging empty slot into cauldron should not do anything</t>
+  </si>
+  <si>
+    <t>Dragging empty slot into cauldron causes reference outside of array bounds and may crash the game</t>
+  </si>
+  <si>
+    <t>1. Open a cauldron
+2. Try to drag a slot with no items and drop it into the cauldron</t>
+  </si>
+  <si>
+    <t>Add a list of items already in cauldron</t>
+  </si>
+  <si>
+    <t>While stirring, the ladle can appear anywhere on the screen</t>
+  </si>
+  <si>
+    <t>When stirring, the ladle should stay within the bounds of the cauldron even if the mouse moves out of bounds</t>
+  </si>
+  <si>
+    <t>Ladle follows mouse around the screen</t>
+  </si>
+  <si>
+    <t>1. Open cauldron menu
+2. Pick up ladle and try to stir</t>
+  </si>
+  <si>
+    <t>The player can be killed while on switching biome</t>
+  </si>
+  <si>
+    <t>When player switches biomes, all motion stops</t>
+  </si>
+  <si>
+    <t>Enemies and ammo can continue moving during a biome switch</t>
+  </si>
+  <si>
+    <t>1. Enter desert biome 
+2. Guide a mummy towards the forest entrance
+3. Attempt to switch biome and the mummy will still be moving and if close enough to player, will kill them</t>
+  </si>
+  <si>
     <t>Severity</t>
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>P0</t>
   </si>
   <si>
     <t>crash bug; game crashes and is unrecoverable</t>
@@ -961,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>36</v>
@@ -1207,64 +1265,164 @@
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="A18" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="B18" s="9">
+        <v>45726.0</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="A19" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B19" s="9">
+        <v>45726.0</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="B20" s="9">
+        <v>45726.0</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="A21" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B21" s="9">
+        <v>45726.0</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="A22" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="B22" s="9">
+        <v>45726.0</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="19"/>
@@ -1275,7 +1433,6 @@
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
@@ -1285,8 +1442,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
@@ -7457,18 +7613,18 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -7476,7 +7632,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -7484,7 +7640,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -7492,7 +7648,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -7500,7 +7656,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -7508,7 +7664,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>

--- a/doc/bug-report.xlsx
+++ b/doc/bug-report.xlsx
@@ -5,19 +5,20 @@
   <sheets>
     <sheet state="visible" name="bugs" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="bug_severities" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Backlog" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="T5sC6Rq1Ridv0K9HJFkGFczIzP10+KOxcNkTAjEex/Y="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="dCyHxS6H1wvTU3Fw8qYCCmeIaEVRvke2K1KcB/I/dw8="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="132">
   <si>
     <t>Bug List</t>
   </si>
@@ -134,9 +135,6 @@
     <t>P4</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
     <t>Michelle</t>
   </si>
   <si>
@@ -163,9 +161,6 @@
   <si>
     <t>1. Enter the grotto
 2. Try to leave the grotto. You can't.</t>
-  </si>
-  <si>
-    <t>Michelle / Steph</t>
   </si>
   <si>
     <t>Can't move along available axis after collision</t>
@@ -249,6 +244,9 @@
 3. Attempt to add all items</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>Adding item to cauldron removes multiple counts from player inventory</t>
   </si>
   <si>
@@ -306,9 +304,6 @@
 2. Try to drag a slot with no items and drop it into the cauldron</t>
   </si>
   <si>
-    <t>Add a list of items already in cauldron</t>
-  </si>
-  <si>
     <t>While stirring, the ladle can appear anywhere on the screen</t>
   </si>
   <si>
@@ -336,6 +331,52 @@
 3. Attempt to switch biome and the mummy will still be moving and if close enough to player, will kill them</t>
   </si>
   <si>
+    <t>Duplicate game_state.json files</t>
+  </si>
+  <si>
+    <t>There should only be one game_state.json file</t>
+  </si>
+  <si>
+    <t>There are multiple game_state.json files, different game saves may load the game depending on the instantiation</t>
+  </si>
+  <si>
+    <t>1. Start game in main directory with ./run.sh or .\run.bat
+2. Close the game
+3. Start the game from the Build directory
+3. Close the game - should see 2 different game_state files</t>
+  </si>
+  <si>
+    <t>Incorrect health on reset</t>
+  </si>
+  <si>
+    <t>Player's health always reset to max on death</t>
+  </si>
+  <si>
+    <t>Player's health doesn't always reset to max on death - instead about 70%</t>
+  </si>
+  <si>
+    <t>1. go to the deep forest
+2. Go to the tree enemies
+3. Get hit until you die
+4.Check your health on respawn</t>
+  </si>
+  <si>
+    <t>Leo/Victor</t>
+  </si>
+  <si>
+    <t>Inventory item stacking</t>
+  </si>
+  <si>
+    <t>Items should stack</t>
+  </si>
+  <si>
+    <t>The same item doesn't stack</t>
+  </si>
+  <si>
+    <t>1. Collect a bunch of galefruits
+2. Sometimes one ends up in a new stack</t>
+  </si>
+  <si>
     <t>Severity</t>
   </si>
   <si>
@@ -358,6 +399,54 @@
   </si>
   <si>
     <t>minor or feature that nice to have but could ship in future release</t>
+  </si>
+  <si>
+    <t>Project Backlog</t>
+  </si>
+  <si>
+    <t>Make it so that you don't have to drag the pestle into the bowl in order to grind</t>
+  </si>
+  <si>
+    <t>Cauldron continues boiling once you re-enter cauldron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor </t>
+  </si>
+  <si>
+    <t>Cauldron serialization</t>
+  </si>
+  <si>
+    <t>Have a timer of indicator to show the duration of the potion</t>
+  </si>
+  <si>
+    <t>Stack potion effects</t>
+  </si>
+  <si>
+    <t>Add chest / garbage can</t>
+  </si>
+  <si>
+    <t>Change tenacity potion or change inventory</t>
+  </si>
+  <si>
+    <t>Serialize active effects</t>
+  </si>
+  <si>
+    <t>Fix enemy collision detection</t>
+  </si>
+  <si>
+    <t>Change the in-between biome drawing thingy? like the forest to mushroom</t>
+  </si>
+  <si>
+    <t>Have the actual potion instead of perfect quality color</t>
+  </si>
+  <si>
+    <t>Having a title screen for the game like Enchanted Grotto, Play, load</t>
+  </si>
+  <si>
+    <t>Only be able to turn page if at lecturn, otherwise can only see current page</t>
+  </si>
+  <si>
+    <t>Respawn counter containues</t>
   </si>
 </sst>
 </file>
@@ -367,7 +456,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -422,6 +511,12 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -449,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -505,16 +600,25 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,6 +633,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -958,22 +1066,22 @@
         <v>35</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -996,16 +1104,16 @@
         <v>24</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -1019,25 +1127,25 @@
         <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -1054,22 +1162,22 @@
         <v>18</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -1080,28 +1188,28 @@
         <v>45725.0</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>36</v>
+      <c r="E12" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="F12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="I12" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="J12" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -1118,22 +1226,22 @@
         <v>30</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="J13" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -1144,19 +1252,19 @@
         <v>45725.0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>15</v>
@@ -1182,22 +1290,22 @@
         <v>18</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="H15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -1214,22 +1322,22 @@
         <v>18</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -1240,28 +1348,28 @@
         <v>45725.0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -1275,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>19</v>
@@ -1284,16 +1392,16 @@
         <v>24</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -1307,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>19</v>
@@ -1316,21 +1424,21 @@
         <v>12</v>
       </c>
       <c r="G19" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="I19" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>86</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="8">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B20" s="9">
         <v>45726.0</v>
@@ -1342,27 +1450,27 @@
         <v>35</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G20" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>15</v>
+      <c r="I20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B21" s="9">
         <v>45726.0</v>
@@ -1371,668 +1479,704 @@
         <v>24</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="8">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="B22" s="9">
-        <v>45726.0</v>
+        <v>45729.0</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="A23" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="B23" s="9">
+        <v>45739.0</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="A24" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="B24" s="9">
+        <v>45739.0</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="21"/>
-      <c r="J60" s="21"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="21"/>
-      <c r="J70" s="21"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="21"/>
-      <c r="J71" s="21"/>
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="A72" s="20"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="G74" s="2"/>
@@ -7583,12 +7727,6 @@
       <c r="H998" s="3"/>
       <c r="I998" s="3"/>
       <c r="J998" s="3"/>
-    </row>
-    <row r="999" ht="14.25" customHeight="1">
-      <c r="G999" s="2"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
     </row>
   </sheetData>
   <printOptions/>
@@ -7613,18 +7751,18 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -7632,7 +7770,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -7640,7 +7778,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -7648,7 +7786,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -7656,7 +7794,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -7664,7 +7802,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1"/>
@@ -8666,4 +8804,3280 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="18.0"/>
+    <col customWidth="1" min="4" max="4" width="19.63"/>
+    <col customWidth="1" min="6" max="6" width="41.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4">
+        <v>15.0</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21">
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22">
+      <c r="F22" s="25"/>
+    </row>
+    <row r="23">
+      <c r="F23" s="25"/>
+    </row>
+    <row r="24">
+      <c r="F24" s="25"/>
+    </row>
+    <row r="25">
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26">
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27">
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28">
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29">
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30">
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31">
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32">
+      <c r="F32" s="25"/>
+    </row>
+    <row r="33">
+      <c r="F33" s="25"/>
+    </row>
+    <row r="34">
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35">
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36">
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37">
+      <c r="F37" s="25"/>
+    </row>
+    <row r="38">
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39">
+      <c r="F39" s="25"/>
+    </row>
+    <row r="40">
+      <c r="F40" s="25"/>
+    </row>
+    <row r="41">
+      <c r="F41" s="25"/>
+    </row>
+    <row r="42">
+      <c r="F42" s="25"/>
+    </row>
+    <row r="43">
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44">
+      <c r="F44" s="25"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46">
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47">
+      <c r="F47" s="25"/>
+    </row>
+    <row r="48">
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49">
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50">
+      <c r="F50" s="25"/>
+    </row>
+    <row r="51">
+      <c r="F51" s="25"/>
+    </row>
+    <row r="52">
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53">
+      <c r="F53" s="25"/>
+    </row>
+    <row r="54">
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55">
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56">
+      <c r="F56" s="25"/>
+    </row>
+    <row r="57">
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58">
+      <c r="F58" s="25"/>
+    </row>
+    <row r="59">
+      <c r="F59" s="25"/>
+    </row>
+    <row r="60">
+      <c r="F60" s="25"/>
+    </row>
+    <row r="61">
+      <c r="F61" s="25"/>
+    </row>
+    <row r="62">
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63">
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64">
+      <c r="F64" s="25"/>
+    </row>
+    <row r="65">
+      <c r="F65" s="25"/>
+    </row>
+    <row r="66">
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67">
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68">
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69">
+      <c r="F69" s="25"/>
+    </row>
+    <row r="70">
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71">
+      <c r="F71" s="25"/>
+    </row>
+    <row r="72">
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73">
+      <c r="F73" s="25"/>
+    </row>
+    <row r="74">
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75">
+      <c r="F75" s="25"/>
+    </row>
+    <row r="76">
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77">
+      <c r="F77" s="25"/>
+    </row>
+    <row r="78">
+      <c r="F78" s="25"/>
+    </row>
+    <row r="79">
+      <c r="F79" s="25"/>
+    </row>
+    <row r="80">
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81">
+      <c r="F81" s="25"/>
+    </row>
+    <row r="82">
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83">
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84">
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85">
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86">
+      <c r="F86" s="25"/>
+    </row>
+    <row r="87">
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88">
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89">
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90">
+      <c r="F90" s="25"/>
+    </row>
+    <row r="91">
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92">
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93">
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94">
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95">
+      <c r="F95" s="25"/>
+    </row>
+    <row r="96">
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97">
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98">
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99">
+      <c r="F99" s="25"/>
+    </row>
+    <row r="100">
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101">
+      <c r="F101" s="25"/>
+    </row>
+    <row r="102">
+      <c r="F102" s="25"/>
+    </row>
+    <row r="103">
+      <c r="F103" s="25"/>
+    </row>
+    <row r="104">
+      <c r="F104" s="25"/>
+    </row>
+    <row r="105">
+      <c r="F105" s="25"/>
+    </row>
+    <row r="106">
+      <c r="F106" s="25"/>
+    </row>
+    <row r="107">
+      <c r="F107" s="25"/>
+    </row>
+    <row r="108">
+      <c r="F108" s="25"/>
+    </row>
+    <row r="109">
+      <c r="F109" s="25"/>
+    </row>
+    <row r="110">
+      <c r="F110" s="25"/>
+    </row>
+    <row r="111">
+      <c r="F111" s="25"/>
+    </row>
+    <row r="112">
+      <c r="F112" s="25"/>
+    </row>
+    <row r="113">
+      <c r="F113" s="25"/>
+    </row>
+    <row r="114">
+      <c r="F114" s="25"/>
+    </row>
+    <row r="115">
+      <c r="F115" s="25"/>
+    </row>
+    <row r="116">
+      <c r="F116" s="25"/>
+    </row>
+    <row r="117">
+      <c r="F117" s="25"/>
+    </row>
+    <row r="118">
+      <c r="F118" s="25"/>
+    </row>
+    <row r="119">
+      <c r="F119" s="25"/>
+    </row>
+    <row r="120">
+      <c r="F120" s="25"/>
+    </row>
+    <row r="121">
+      <c r="F121" s="25"/>
+    </row>
+    <row r="122">
+      <c r="F122" s="25"/>
+    </row>
+    <row r="123">
+      <c r="F123" s="25"/>
+    </row>
+    <row r="124">
+      <c r="F124" s="25"/>
+    </row>
+    <row r="125">
+      <c r="F125" s="25"/>
+    </row>
+    <row r="126">
+      <c r="F126" s="25"/>
+    </row>
+    <row r="127">
+      <c r="F127" s="25"/>
+    </row>
+    <row r="128">
+      <c r="F128" s="25"/>
+    </row>
+    <row r="129">
+      <c r="F129" s="25"/>
+    </row>
+    <row r="130">
+      <c r="F130" s="25"/>
+    </row>
+    <row r="131">
+      <c r="F131" s="25"/>
+    </row>
+    <row r="132">
+      <c r="F132" s="25"/>
+    </row>
+    <row r="133">
+      <c r="F133" s="25"/>
+    </row>
+    <row r="134">
+      <c r="F134" s="25"/>
+    </row>
+    <row r="135">
+      <c r="F135" s="25"/>
+    </row>
+    <row r="136">
+      <c r="F136" s="25"/>
+    </row>
+    <row r="137">
+      <c r="F137" s="25"/>
+    </row>
+    <row r="138">
+      <c r="F138" s="25"/>
+    </row>
+    <row r="139">
+      <c r="F139" s="25"/>
+    </row>
+    <row r="140">
+      <c r="F140" s="25"/>
+    </row>
+    <row r="141">
+      <c r="F141" s="25"/>
+    </row>
+    <row r="142">
+      <c r="F142" s="25"/>
+    </row>
+    <row r="143">
+      <c r="F143" s="25"/>
+    </row>
+    <row r="144">
+      <c r="F144" s="25"/>
+    </row>
+    <row r="145">
+      <c r="F145" s="25"/>
+    </row>
+    <row r="146">
+      <c r="F146" s="25"/>
+    </row>
+    <row r="147">
+      <c r="F147" s="25"/>
+    </row>
+    <row r="148">
+      <c r="F148" s="25"/>
+    </row>
+    <row r="149">
+      <c r="F149" s="25"/>
+    </row>
+    <row r="150">
+      <c r="F150" s="25"/>
+    </row>
+    <row r="151">
+      <c r="F151" s="25"/>
+    </row>
+    <row r="152">
+      <c r="F152" s="25"/>
+    </row>
+    <row r="153">
+      <c r="F153" s="25"/>
+    </row>
+    <row r="154">
+      <c r="F154" s="25"/>
+    </row>
+    <row r="155">
+      <c r="F155" s="25"/>
+    </row>
+    <row r="156">
+      <c r="F156" s="25"/>
+    </row>
+    <row r="157">
+      <c r="F157" s="25"/>
+    </row>
+    <row r="158">
+      <c r="F158" s="25"/>
+    </row>
+    <row r="159">
+      <c r="F159" s="25"/>
+    </row>
+    <row r="160">
+      <c r="F160" s="25"/>
+    </row>
+    <row r="161">
+      <c r="F161" s="25"/>
+    </row>
+    <row r="162">
+      <c r="F162" s="25"/>
+    </row>
+    <row r="163">
+      <c r="F163" s="25"/>
+    </row>
+    <row r="164">
+      <c r="F164" s="25"/>
+    </row>
+    <row r="165">
+      <c r="F165" s="25"/>
+    </row>
+    <row r="166">
+      <c r="F166" s="25"/>
+    </row>
+    <row r="167">
+      <c r="F167" s="25"/>
+    </row>
+    <row r="168">
+      <c r="F168" s="25"/>
+    </row>
+    <row r="169">
+      <c r="F169" s="25"/>
+    </row>
+    <row r="170">
+      <c r="F170" s="25"/>
+    </row>
+    <row r="171">
+      <c r="F171" s="25"/>
+    </row>
+    <row r="172">
+      <c r="F172" s="25"/>
+    </row>
+    <row r="173">
+      <c r="F173" s="25"/>
+    </row>
+    <row r="174">
+      <c r="F174" s="25"/>
+    </row>
+    <row r="175">
+      <c r="F175" s="25"/>
+    </row>
+    <row r="176">
+      <c r="F176" s="25"/>
+    </row>
+    <row r="177">
+      <c r="F177" s="25"/>
+    </row>
+    <row r="178">
+      <c r="F178" s="25"/>
+    </row>
+    <row r="179">
+      <c r="F179" s="25"/>
+    </row>
+    <row r="180">
+      <c r="F180" s="25"/>
+    </row>
+    <row r="181">
+      <c r="F181" s="25"/>
+    </row>
+    <row r="182">
+      <c r="F182" s="25"/>
+    </row>
+    <row r="183">
+      <c r="F183" s="25"/>
+    </row>
+    <row r="184">
+      <c r="F184" s="25"/>
+    </row>
+    <row r="185">
+      <c r="F185" s="25"/>
+    </row>
+    <row r="186">
+      <c r="F186" s="25"/>
+    </row>
+    <row r="187">
+      <c r="F187" s="25"/>
+    </row>
+    <row r="188">
+      <c r="F188" s="25"/>
+    </row>
+    <row r="189">
+      <c r="F189" s="25"/>
+    </row>
+    <row r="190">
+      <c r="F190" s="25"/>
+    </row>
+    <row r="191">
+      <c r="F191" s="25"/>
+    </row>
+    <row r="192">
+      <c r="F192" s="25"/>
+    </row>
+    <row r="193">
+      <c r="F193" s="25"/>
+    </row>
+    <row r="194">
+      <c r="F194" s="25"/>
+    </row>
+    <row r="195">
+      <c r="F195" s="25"/>
+    </row>
+    <row r="196">
+      <c r="F196" s="25"/>
+    </row>
+    <row r="197">
+      <c r="F197" s="25"/>
+    </row>
+    <row r="198">
+      <c r="F198" s="25"/>
+    </row>
+    <row r="199">
+      <c r="F199" s="25"/>
+    </row>
+    <row r="200">
+      <c r="F200" s="25"/>
+    </row>
+    <row r="201">
+      <c r="F201" s="25"/>
+    </row>
+    <row r="202">
+      <c r="F202" s="25"/>
+    </row>
+    <row r="203">
+      <c r="F203" s="25"/>
+    </row>
+    <row r="204">
+      <c r="F204" s="25"/>
+    </row>
+    <row r="205">
+      <c r="F205" s="25"/>
+    </row>
+    <row r="206">
+      <c r="F206" s="25"/>
+    </row>
+    <row r="207">
+      <c r="F207" s="25"/>
+    </row>
+    <row r="208">
+      <c r="F208" s="25"/>
+    </row>
+    <row r="209">
+      <c r="F209" s="25"/>
+    </row>
+    <row r="210">
+      <c r="F210" s="25"/>
+    </row>
+    <row r="211">
+      <c r="F211" s="25"/>
+    </row>
+    <row r="212">
+      <c r="F212" s="25"/>
+    </row>
+    <row r="213">
+      <c r="F213" s="25"/>
+    </row>
+    <row r="214">
+      <c r="F214" s="25"/>
+    </row>
+    <row r="215">
+      <c r="F215" s="25"/>
+    </row>
+    <row r="216">
+      <c r="F216" s="25"/>
+    </row>
+    <row r="217">
+      <c r="F217" s="25"/>
+    </row>
+    <row r="218">
+      <c r="F218" s="25"/>
+    </row>
+    <row r="219">
+      <c r="F219" s="25"/>
+    </row>
+    <row r="220">
+      <c r="F220" s="25"/>
+    </row>
+    <row r="221">
+      <c r="F221" s="25"/>
+    </row>
+    <row r="222">
+      <c r="F222" s="25"/>
+    </row>
+    <row r="223">
+      <c r="F223" s="25"/>
+    </row>
+    <row r="224">
+      <c r="F224" s="25"/>
+    </row>
+    <row r="225">
+      <c r="F225" s="25"/>
+    </row>
+    <row r="226">
+      <c r="F226" s="25"/>
+    </row>
+    <row r="227">
+      <c r="F227" s="25"/>
+    </row>
+    <row r="228">
+      <c r="F228" s="25"/>
+    </row>
+    <row r="229">
+      <c r="F229" s="25"/>
+    </row>
+    <row r="230">
+      <c r="F230" s="25"/>
+    </row>
+    <row r="231">
+      <c r="F231" s="25"/>
+    </row>
+    <row r="232">
+      <c r="F232" s="25"/>
+    </row>
+    <row r="233">
+      <c r="F233" s="25"/>
+    </row>
+    <row r="234">
+      <c r="F234" s="25"/>
+    </row>
+    <row r="235">
+      <c r="F235" s="25"/>
+    </row>
+    <row r="236">
+      <c r="F236" s="25"/>
+    </row>
+    <row r="237">
+      <c r="F237" s="25"/>
+    </row>
+    <row r="238">
+      <c r="F238" s="25"/>
+    </row>
+    <row r="239">
+      <c r="F239" s="25"/>
+    </row>
+    <row r="240">
+      <c r="F240" s="25"/>
+    </row>
+    <row r="241">
+      <c r="F241" s="25"/>
+    </row>
+    <row r="242">
+      <c r="F242" s="25"/>
+    </row>
+    <row r="243">
+      <c r="F243" s="25"/>
+    </row>
+    <row r="244">
+      <c r="F244" s="25"/>
+    </row>
+    <row r="245">
+      <c r="F245" s="25"/>
+    </row>
+    <row r="246">
+      <c r="F246" s="25"/>
+    </row>
+    <row r="247">
+      <c r="F247" s="25"/>
+    </row>
+    <row r="248">
+      <c r="F248" s="25"/>
+    </row>
+    <row r="249">
+      <c r="F249" s="25"/>
+    </row>
+    <row r="250">
+      <c r="F250" s="25"/>
+    </row>
+    <row r="251">
+      <c r="F251" s="25"/>
+    </row>
+    <row r="252">
+      <c r="F252" s="25"/>
+    </row>
+    <row r="253">
+      <c r="F253" s="25"/>
+    </row>
+    <row r="254">
+      <c r="F254" s="25"/>
+    </row>
+    <row r="255">
+      <c r="F255" s="25"/>
+    </row>
+    <row r="256">
+      <c r="F256" s="25"/>
+    </row>
+    <row r="257">
+      <c r="F257" s="25"/>
+    </row>
+    <row r="258">
+      <c r="F258" s="25"/>
+    </row>
+    <row r="259">
+      <c r="F259" s="25"/>
+    </row>
+    <row r="260">
+      <c r="F260" s="25"/>
+    </row>
+    <row r="261">
+      <c r="F261" s="25"/>
+    </row>
+    <row r="262">
+      <c r="F262" s="25"/>
+    </row>
+    <row r="263">
+      <c r="F263" s="25"/>
+    </row>
+    <row r="264">
+      <c r="F264" s="25"/>
+    </row>
+    <row r="265">
+      <c r="F265" s="25"/>
+    </row>
+    <row r="266">
+      <c r="F266" s="25"/>
+    </row>
+    <row r="267">
+      <c r="F267" s="25"/>
+    </row>
+    <row r="268">
+      <c r="F268" s="25"/>
+    </row>
+    <row r="269">
+      <c r="F269" s="25"/>
+    </row>
+    <row r="270">
+      <c r="F270" s="25"/>
+    </row>
+    <row r="271">
+      <c r="F271" s="25"/>
+    </row>
+    <row r="272">
+      <c r="F272" s="25"/>
+    </row>
+    <row r="273">
+      <c r="F273" s="25"/>
+    </row>
+    <row r="274">
+      <c r="F274" s="25"/>
+    </row>
+    <row r="275">
+      <c r="F275" s="25"/>
+    </row>
+    <row r="276">
+      <c r="F276" s="25"/>
+    </row>
+    <row r="277">
+      <c r="F277" s="25"/>
+    </row>
+    <row r="278">
+      <c r="F278" s="25"/>
+    </row>
+    <row r="279">
+      <c r="F279" s="25"/>
+    </row>
+    <row r="280">
+      <c r="F280" s="25"/>
+    </row>
+    <row r="281">
+      <c r="F281" s="25"/>
+    </row>
+    <row r="282">
+      <c r="F282" s="25"/>
+    </row>
+    <row r="283">
+      <c r="F283" s="25"/>
+    </row>
+    <row r="284">
+      <c r="F284" s="25"/>
+    </row>
+    <row r="285">
+      <c r="F285" s="25"/>
+    </row>
+    <row r="286">
+      <c r="F286" s="25"/>
+    </row>
+    <row r="287">
+      <c r="F287" s="25"/>
+    </row>
+    <row r="288">
+      <c r="F288" s="25"/>
+    </row>
+    <row r="289">
+      <c r="F289" s="25"/>
+    </row>
+    <row r="290">
+      <c r="F290" s="25"/>
+    </row>
+    <row r="291">
+      <c r="F291" s="25"/>
+    </row>
+    <row r="292">
+      <c r="F292" s="25"/>
+    </row>
+    <row r="293">
+      <c r="F293" s="25"/>
+    </row>
+    <row r="294">
+      <c r="F294" s="25"/>
+    </row>
+    <row r="295">
+      <c r="F295" s="25"/>
+    </row>
+    <row r="296">
+      <c r="F296" s="25"/>
+    </row>
+    <row r="297">
+      <c r="F297" s="25"/>
+    </row>
+    <row r="298">
+      <c r="F298" s="25"/>
+    </row>
+    <row r="299">
+      <c r="F299" s="25"/>
+    </row>
+    <row r="300">
+      <c r="F300" s="25"/>
+    </row>
+    <row r="301">
+      <c r="F301" s="25"/>
+    </row>
+    <row r="302">
+      <c r="F302" s="25"/>
+    </row>
+    <row r="303">
+      <c r="F303" s="25"/>
+    </row>
+    <row r="304">
+      <c r="F304" s="25"/>
+    </row>
+    <row r="305">
+      <c r="F305" s="25"/>
+    </row>
+    <row r="306">
+      <c r="F306" s="25"/>
+    </row>
+    <row r="307">
+      <c r="F307" s="25"/>
+    </row>
+    <row r="308">
+      <c r="F308" s="25"/>
+    </row>
+    <row r="309">
+      <c r="F309" s="25"/>
+    </row>
+    <row r="310">
+      <c r="F310" s="25"/>
+    </row>
+    <row r="311">
+      <c r="F311" s="25"/>
+    </row>
+    <row r="312">
+      <c r="F312" s="25"/>
+    </row>
+    <row r="313">
+      <c r="F313" s="25"/>
+    </row>
+    <row r="314">
+      <c r="F314" s="25"/>
+    </row>
+    <row r="315">
+      <c r="F315" s="25"/>
+    </row>
+    <row r="316">
+      <c r="F316" s="25"/>
+    </row>
+    <row r="317">
+      <c r="F317" s="25"/>
+    </row>
+    <row r="318">
+      <c r="F318" s="25"/>
+    </row>
+    <row r="319">
+      <c r="F319" s="25"/>
+    </row>
+    <row r="320">
+      <c r="F320" s="25"/>
+    </row>
+    <row r="321">
+      <c r="F321" s="25"/>
+    </row>
+    <row r="322">
+      <c r="F322" s="25"/>
+    </row>
+    <row r="323">
+      <c r="F323" s="25"/>
+    </row>
+    <row r="324">
+      <c r="F324" s="25"/>
+    </row>
+    <row r="325">
+      <c r="F325" s="25"/>
+    </row>
+    <row r="326">
+      <c r="F326" s="25"/>
+    </row>
+    <row r="327">
+      <c r="F327" s="25"/>
+    </row>
+    <row r="328">
+      <c r="F328" s="25"/>
+    </row>
+    <row r="329">
+      <c r="F329" s="25"/>
+    </row>
+    <row r="330">
+      <c r="F330" s="25"/>
+    </row>
+    <row r="331">
+      <c r="F331" s="25"/>
+    </row>
+    <row r="332">
+      <c r="F332" s="25"/>
+    </row>
+    <row r="333">
+      <c r="F333" s="25"/>
+    </row>
+    <row r="334">
+      <c r="F334" s="25"/>
+    </row>
+    <row r="335">
+      <c r="F335" s="25"/>
+    </row>
+    <row r="336">
+      <c r="F336" s="25"/>
+    </row>
+    <row r="337">
+      <c r="F337" s="25"/>
+    </row>
+    <row r="338">
+      <c r="F338" s="25"/>
+    </row>
+    <row r="339">
+      <c r="F339" s="25"/>
+    </row>
+    <row r="340">
+      <c r="F340" s="25"/>
+    </row>
+    <row r="341">
+      <c r="F341" s="25"/>
+    </row>
+    <row r="342">
+      <c r="F342" s="25"/>
+    </row>
+    <row r="343">
+      <c r="F343" s="25"/>
+    </row>
+    <row r="344">
+      <c r="F344" s="25"/>
+    </row>
+    <row r="345">
+      <c r="F345" s="25"/>
+    </row>
+    <row r="346">
+      <c r="F346" s="25"/>
+    </row>
+    <row r="347">
+      <c r="F347" s="25"/>
+    </row>
+    <row r="348">
+      <c r="F348" s="25"/>
+    </row>
+    <row r="349">
+      <c r="F349" s="25"/>
+    </row>
+    <row r="350">
+      <c r="F350" s="25"/>
+    </row>
+    <row r="351">
+      <c r="F351" s="25"/>
+    </row>
+    <row r="352">
+      <c r="F352" s="25"/>
+    </row>
+    <row r="353">
+      <c r="F353" s="25"/>
+    </row>
+    <row r="354">
+      <c r="F354" s="25"/>
+    </row>
+    <row r="355">
+      <c r="F355" s="25"/>
+    </row>
+    <row r="356">
+      <c r="F356" s="25"/>
+    </row>
+    <row r="357">
+      <c r="F357" s="25"/>
+    </row>
+    <row r="358">
+      <c r="F358" s="25"/>
+    </row>
+    <row r="359">
+      <c r="F359" s="25"/>
+    </row>
+    <row r="360">
+      <c r="F360" s="25"/>
+    </row>
+    <row r="361">
+      <c r="F361" s="25"/>
+    </row>
+    <row r="362">
+      <c r="F362" s="25"/>
+    </row>
+    <row r="363">
+      <c r="F363" s="25"/>
+    </row>
+    <row r="364">
+      <c r="F364" s="25"/>
+    </row>
+    <row r="365">
+      <c r="F365" s="25"/>
+    </row>
+    <row r="366">
+      <c r="F366" s="25"/>
+    </row>
+    <row r="367">
+      <c r="F367" s="25"/>
+    </row>
+    <row r="368">
+      <c r="F368" s="25"/>
+    </row>
+    <row r="369">
+      <c r="F369" s="25"/>
+    </row>
+    <row r="370">
+      <c r="F370" s="25"/>
+    </row>
+    <row r="371">
+      <c r="F371" s="25"/>
+    </row>
+    <row r="372">
+      <c r="F372" s="25"/>
+    </row>
+    <row r="373">
+      <c r="F373" s="25"/>
+    </row>
+    <row r="374">
+      <c r="F374" s="25"/>
+    </row>
+    <row r="375">
+      <c r="F375" s="25"/>
+    </row>
+    <row r="376">
+      <c r="F376" s="25"/>
+    </row>
+    <row r="377">
+      <c r="F377" s="25"/>
+    </row>
+    <row r="378">
+      <c r="F378" s="25"/>
+    </row>
+    <row r="379">
+      <c r="F379" s="25"/>
+    </row>
+    <row r="380">
+      <c r="F380" s="25"/>
+    </row>
+    <row r="381">
+      <c r="F381" s="25"/>
+    </row>
+    <row r="382">
+      <c r="F382" s="25"/>
+    </row>
+    <row r="383">
+      <c r="F383" s="25"/>
+    </row>
+    <row r="384">
+      <c r="F384" s="25"/>
+    </row>
+    <row r="385">
+      <c r="F385" s="25"/>
+    </row>
+    <row r="386">
+      <c r="F386" s="25"/>
+    </row>
+    <row r="387">
+      <c r="F387" s="25"/>
+    </row>
+    <row r="388">
+      <c r="F388" s="25"/>
+    </row>
+    <row r="389">
+      <c r="F389" s="25"/>
+    </row>
+    <row r="390">
+      <c r="F390" s="25"/>
+    </row>
+    <row r="391">
+      <c r="F391" s="25"/>
+    </row>
+    <row r="392">
+      <c r="F392" s="25"/>
+    </row>
+    <row r="393">
+      <c r="F393" s="25"/>
+    </row>
+    <row r="394">
+      <c r="F394" s="25"/>
+    </row>
+    <row r="395">
+      <c r="F395" s="25"/>
+    </row>
+    <row r="396">
+      <c r="F396" s="25"/>
+    </row>
+    <row r="397">
+      <c r="F397" s="25"/>
+    </row>
+    <row r="398">
+      <c r="F398" s="25"/>
+    </row>
+    <row r="399">
+      <c r="F399" s="25"/>
+    </row>
+    <row r="400">
+      <c r="F400" s="25"/>
+    </row>
+    <row r="401">
+      <c r="F401" s="25"/>
+    </row>
+    <row r="402">
+      <c r="F402" s="25"/>
+    </row>
+    <row r="403">
+      <c r="F403" s="25"/>
+    </row>
+    <row r="404">
+      <c r="F404" s="25"/>
+    </row>
+    <row r="405">
+      <c r="F405" s="25"/>
+    </row>
+    <row r="406">
+      <c r="F406" s="25"/>
+    </row>
+    <row r="407">
+      <c r="F407" s="25"/>
+    </row>
+    <row r="408">
+      <c r="F408" s="25"/>
+    </row>
+    <row r="409">
+      <c r="F409" s="25"/>
+    </row>
+    <row r="410">
+      <c r="F410" s="25"/>
+    </row>
+    <row r="411">
+      <c r="F411" s="25"/>
+    </row>
+    <row r="412">
+      <c r="F412" s="25"/>
+    </row>
+    <row r="413">
+      <c r="F413" s="25"/>
+    </row>
+    <row r="414">
+      <c r="F414" s="25"/>
+    </row>
+    <row r="415">
+      <c r="F415" s="25"/>
+    </row>
+    <row r="416">
+      <c r="F416" s="25"/>
+    </row>
+    <row r="417">
+      <c r="F417" s="25"/>
+    </row>
+    <row r="418">
+      <c r="F418" s="25"/>
+    </row>
+    <row r="419">
+      <c r="F419" s="25"/>
+    </row>
+    <row r="420">
+      <c r="F420" s="25"/>
+    </row>
+    <row r="421">
+      <c r="F421" s="25"/>
+    </row>
+    <row r="422">
+      <c r="F422" s="25"/>
+    </row>
+    <row r="423">
+      <c r="F423" s="25"/>
+    </row>
+    <row r="424">
+      <c r="F424" s="25"/>
+    </row>
+    <row r="425">
+      <c r="F425" s="25"/>
+    </row>
+    <row r="426">
+      <c r="F426" s="25"/>
+    </row>
+    <row r="427">
+      <c r="F427" s="25"/>
+    </row>
+    <row r="428">
+      <c r="F428" s="25"/>
+    </row>
+    <row r="429">
+      <c r="F429" s="25"/>
+    </row>
+    <row r="430">
+      <c r="F430" s="25"/>
+    </row>
+    <row r="431">
+      <c r="F431" s="25"/>
+    </row>
+    <row r="432">
+      <c r="F432" s="25"/>
+    </row>
+    <row r="433">
+      <c r="F433" s="25"/>
+    </row>
+    <row r="434">
+      <c r="F434" s="25"/>
+    </row>
+    <row r="435">
+      <c r="F435" s="25"/>
+    </row>
+    <row r="436">
+      <c r="F436" s="25"/>
+    </row>
+    <row r="437">
+      <c r="F437" s="25"/>
+    </row>
+    <row r="438">
+      <c r="F438" s="25"/>
+    </row>
+    <row r="439">
+      <c r="F439" s="25"/>
+    </row>
+    <row r="440">
+      <c r="F440" s="25"/>
+    </row>
+    <row r="441">
+      <c r="F441" s="25"/>
+    </row>
+    <row r="442">
+      <c r="F442" s="25"/>
+    </row>
+    <row r="443">
+      <c r="F443" s="25"/>
+    </row>
+    <row r="444">
+      <c r="F444" s="25"/>
+    </row>
+    <row r="445">
+      <c r="F445" s="25"/>
+    </row>
+    <row r="446">
+      <c r="F446" s="25"/>
+    </row>
+    <row r="447">
+      <c r="F447" s="25"/>
+    </row>
+    <row r="448">
+      <c r="F448" s="25"/>
+    </row>
+    <row r="449">
+      <c r="F449" s="25"/>
+    </row>
+    <row r="450">
+      <c r="F450" s="25"/>
+    </row>
+    <row r="451">
+      <c r="F451" s="25"/>
+    </row>
+    <row r="452">
+      <c r="F452" s="25"/>
+    </row>
+    <row r="453">
+      <c r="F453" s="25"/>
+    </row>
+    <row r="454">
+      <c r="F454" s="25"/>
+    </row>
+    <row r="455">
+      <c r="F455" s="25"/>
+    </row>
+    <row r="456">
+      <c r="F456" s="25"/>
+    </row>
+    <row r="457">
+      <c r="F457" s="25"/>
+    </row>
+    <row r="458">
+      <c r="F458" s="25"/>
+    </row>
+    <row r="459">
+      <c r="F459" s="25"/>
+    </row>
+    <row r="460">
+      <c r="F460" s="25"/>
+    </row>
+    <row r="461">
+      <c r="F461" s="25"/>
+    </row>
+    <row r="462">
+      <c r="F462" s="25"/>
+    </row>
+    <row r="463">
+      <c r="F463" s="25"/>
+    </row>
+    <row r="464">
+      <c r="F464" s="25"/>
+    </row>
+    <row r="465">
+      <c r="F465" s="25"/>
+    </row>
+    <row r="466">
+      <c r="F466" s="25"/>
+    </row>
+    <row r="467">
+      <c r="F467" s="25"/>
+    </row>
+    <row r="468">
+      <c r="F468" s="25"/>
+    </row>
+    <row r="469">
+      <c r="F469" s="25"/>
+    </row>
+    <row r="470">
+      <c r="F470" s="25"/>
+    </row>
+    <row r="471">
+      <c r="F471" s="25"/>
+    </row>
+    <row r="472">
+      <c r="F472" s="25"/>
+    </row>
+    <row r="473">
+      <c r="F473" s="25"/>
+    </row>
+    <row r="474">
+      <c r="F474" s="25"/>
+    </row>
+    <row r="475">
+      <c r="F475" s="25"/>
+    </row>
+    <row r="476">
+      <c r="F476" s="25"/>
+    </row>
+    <row r="477">
+      <c r="F477" s="25"/>
+    </row>
+    <row r="478">
+      <c r="F478" s="25"/>
+    </row>
+    <row r="479">
+      <c r="F479" s="25"/>
+    </row>
+    <row r="480">
+      <c r="F480" s="25"/>
+    </row>
+    <row r="481">
+      <c r="F481" s="25"/>
+    </row>
+    <row r="482">
+      <c r="F482" s="25"/>
+    </row>
+    <row r="483">
+      <c r="F483" s="25"/>
+    </row>
+    <row r="484">
+      <c r="F484" s="25"/>
+    </row>
+    <row r="485">
+      <c r="F485" s="25"/>
+    </row>
+    <row r="486">
+      <c r="F486" s="25"/>
+    </row>
+    <row r="487">
+      <c r="F487" s="25"/>
+    </row>
+    <row r="488">
+      <c r="F488" s="25"/>
+    </row>
+    <row r="489">
+      <c r="F489" s="25"/>
+    </row>
+    <row r="490">
+      <c r="F490" s="25"/>
+    </row>
+    <row r="491">
+      <c r="F491" s="25"/>
+    </row>
+    <row r="492">
+      <c r="F492" s="25"/>
+    </row>
+    <row r="493">
+      <c r="F493" s="25"/>
+    </row>
+    <row r="494">
+      <c r="F494" s="25"/>
+    </row>
+    <row r="495">
+      <c r="F495" s="25"/>
+    </row>
+    <row r="496">
+      <c r="F496" s="25"/>
+    </row>
+    <row r="497">
+      <c r="F497" s="25"/>
+    </row>
+    <row r="498">
+      <c r="F498" s="25"/>
+    </row>
+    <row r="499">
+      <c r="F499" s="25"/>
+    </row>
+    <row r="500">
+      <c r="F500" s="25"/>
+    </row>
+    <row r="501">
+      <c r="F501" s="25"/>
+    </row>
+    <row r="502">
+      <c r="F502" s="25"/>
+    </row>
+    <row r="503">
+      <c r="F503" s="25"/>
+    </row>
+    <row r="504">
+      <c r="F504" s="25"/>
+    </row>
+    <row r="505">
+      <c r="F505" s="25"/>
+    </row>
+    <row r="506">
+      <c r="F506" s="25"/>
+    </row>
+    <row r="507">
+      <c r="F507" s="25"/>
+    </row>
+    <row r="508">
+      <c r="F508" s="25"/>
+    </row>
+    <row r="509">
+      <c r="F509" s="25"/>
+    </row>
+    <row r="510">
+      <c r="F510" s="25"/>
+    </row>
+    <row r="511">
+      <c r="F511" s="25"/>
+    </row>
+    <row r="512">
+      <c r="F512" s="25"/>
+    </row>
+    <row r="513">
+      <c r="F513" s="25"/>
+    </row>
+    <row r="514">
+      <c r="F514" s="25"/>
+    </row>
+    <row r="515">
+      <c r="F515" s="25"/>
+    </row>
+    <row r="516">
+      <c r="F516" s="25"/>
+    </row>
+    <row r="517">
+      <c r="F517" s="25"/>
+    </row>
+    <row r="518">
+      <c r="F518" s="25"/>
+    </row>
+    <row r="519">
+      <c r="F519" s="25"/>
+    </row>
+    <row r="520">
+      <c r="F520" s="25"/>
+    </row>
+    <row r="521">
+      <c r="F521" s="25"/>
+    </row>
+    <row r="522">
+      <c r="F522" s="25"/>
+    </row>
+    <row r="523">
+      <c r="F523" s="25"/>
+    </row>
+    <row r="524">
+      <c r="F524" s="25"/>
+    </row>
+    <row r="525">
+      <c r="F525" s="25"/>
+    </row>
+    <row r="526">
+      <c r="F526" s="25"/>
+    </row>
+    <row r="527">
+      <c r="F527" s="25"/>
+    </row>
+    <row r="528">
+      <c r="F528" s="25"/>
+    </row>
+    <row r="529">
+      <c r="F529" s="25"/>
+    </row>
+    <row r="530">
+      <c r="F530" s="25"/>
+    </row>
+    <row r="531">
+      <c r="F531" s="25"/>
+    </row>
+    <row r="532">
+      <c r="F532" s="25"/>
+    </row>
+    <row r="533">
+      <c r="F533" s="25"/>
+    </row>
+    <row r="534">
+      <c r="F534" s="25"/>
+    </row>
+    <row r="535">
+      <c r="F535" s="25"/>
+    </row>
+    <row r="536">
+      <c r="F536" s="25"/>
+    </row>
+    <row r="537">
+      <c r="F537" s="25"/>
+    </row>
+    <row r="538">
+      <c r="F538" s="25"/>
+    </row>
+    <row r="539">
+      <c r="F539" s="25"/>
+    </row>
+    <row r="540">
+      <c r="F540" s="25"/>
+    </row>
+    <row r="541">
+      <c r="F541" s="25"/>
+    </row>
+    <row r="542">
+      <c r="F542" s="25"/>
+    </row>
+    <row r="543">
+      <c r="F543" s="25"/>
+    </row>
+    <row r="544">
+      <c r="F544" s="25"/>
+    </row>
+    <row r="545">
+      <c r="F545" s="25"/>
+    </row>
+    <row r="546">
+      <c r="F546" s="25"/>
+    </row>
+    <row r="547">
+      <c r="F547" s="25"/>
+    </row>
+    <row r="548">
+      <c r="F548" s="25"/>
+    </row>
+    <row r="549">
+      <c r="F549" s="25"/>
+    </row>
+    <row r="550">
+      <c r="F550" s="25"/>
+    </row>
+    <row r="551">
+      <c r="F551" s="25"/>
+    </row>
+    <row r="552">
+      <c r="F552" s="25"/>
+    </row>
+    <row r="553">
+      <c r="F553" s="25"/>
+    </row>
+    <row r="554">
+      <c r="F554" s="25"/>
+    </row>
+    <row r="555">
+      <c r="F555" s="25"/>
+    </row>
+    <row r="556">
+      <c r="F556" s="25"/>
+    </row>
+    <row r="557">
+      <c r="F557" s="25"/>
+    </row>
+    <row r="558">
+      <c r="F558" s="25"/>
+    </row>
+    <row r="559">
+      <c r="F559" s="25"/>
+    </row>
+    <row r="560">
+      <c r="F560" s="25"/>
+    </row>
+    <row r="561">
+      <c r="F561" s="25"/>
+    </row>
+    <row r="562">
+      <c r="F562" s="25"/>
+    </row>
+    <row r="563">
+      <c r="F563" s="25"/>
+    </row>
+    <row r="564">
+      <c r="F564" s="25"/>
+    </row>
+    <row r="565">
+      <c r="F565" s="25"/>
+    </row>
+    <row r="566">
+      <c r="F566" s="25"/>
+    </row>
+    <row r="567">
+      <c r="F567" s="25"/>
+    </row>
+    <row r="568">
+      <c r="F568" s="25"/>
+    </row>
+    <row r="569">
+      <c r="F569" s="25"/>
+    </row>
+    <row r="570">
+      <c r="F570" s="25"/>
+    </row>
+    <row r="571">
+      <c r="F571" s="25"/>
+    </row>
+    <row r="572">
+      <c r="F572" s="25"/>
+    </row>
+    <row r="573">
+      <c r="F573" s="25"/>
+    </row>
+    <row r="574">
+      <c r="F574" s="25"/>
+    </row>
+    <row r="575">
+      <c r="F575" s="25"/>
+    </row>
+    <row r="576">
+      <c r="F576" s="25"/>
+    </row>
+    <row r="577">
+      <c r="F577" s="25"/>
+    </row>
+    <row r="578">
+      <c r="F578" s="25"/>
+    </row>
+    <row r="579">
+      <c r="F579" s="25"/>
+    </row>
+    <row r="580">
+      <c r="F580" s="25"/>
+    </row>
+    <row r="581">
+      <c r="F581" s="25"/>
+    </row>
+    <row r="582">
+      <c r="F582" s="25"/>
+    </row>
+    <row r="583">
+      <c r="F583" s="25"/>
+    </row>
+    <row r="584">
+      <c r="F584" s="25"/>
+    </row>
+    <row r="585">
+      <c r="F585" s="25"/>
+    </row>
+    <row r="586">
+      <c r="F586" s="25"/>
+    </row>
+    <row r="587">
+      <c r="F587" s="25"/>
+    </row>
+    <row r="588">
+      <c r="F588" s="25"/>
+    </row>
+    <row r="589">
+      <c r="F589" s="25"/>
+    </row>
+    <row r="590">
+      <c r="F590" s="25"/>
+    </row>
+    <row r="591">
+      <c r="F591" s="25"/>
+    </row>
+    <row r="592">
+      <c r="F592" s="25"/>
+    </row>
+    <row r="593">
+      <c r="F593" s="25"/>
+    </row>
+    <row r="594">
+      <c r="F594" s="25"/>
+    </row>
+    <row r="595">
+      <c r="F595" s="25"/>
+    </row>
+    <row r="596">
+      <c r="F596" s="25"/>
+    </row>
+    <row r="597">
+      <c r="F597" s="25"/>
+    </row>
+    <row r="598">
+      <c r="F598" s="25"/>
+    </row>
+    <row r="599">
+      <c r="F599" s="25"/>
+    </row>
+    <row r="600">
+      <c r="F600" s="25"/>
+    </row>
+    <row r="601">
+      <c r="F601" s="25"/>
+    </row>
+    <row r="602">
+      <c r="F602" s="25"/>
+    </row>
+    <row r="603">
+      <c r="F603" s="25"/>
+    </row>
+    <row r="604">
+      <c r="F604" s="25"/>
+    </row>
+    <row r="605">
+      <c r="F605" s="25"/>
+    </row>
+    <row r="606">
+      <c r="F606" s="25"/>
+    </row>
+    <row r="607">
+      <c r="F607" s="25"/>
+    </row>
+    <row r="608">
+      <c r="F608" s="25"/>
+    </row>
+    <row r="609">
+      <c r="F609" s="25"/>
+    </row>
+    <row r="610">
+      <c r="F610" s="25"/>
+    </row>
+    <row r="611">
+      <c r="F611" s="25"/>
+    </row>
+    <row r="612">
+      <c r="F612" s="25"/>
+    </row>
+    <row r="613">
+      <c r="F613" s="25"/>
+    </row>
+    <row r="614">
+      <c r="F614" s="25"/>
+    </row>
+    <row r="615">
+      <c r="F615" s="25"/>
+    </row>
+    <row r="616">
+      <c r="F616" s="25"/>
+    </row>
+    <row r="617">
+      <c r="F617" s="25"/>
+    </row>
+    <row r="618">
+      <c r="F618" s="25"/>
+    </row>
+    <row r="619">
+      <c r="F619" s="25"/>
+    </row>
+    <row r="620">
+      <c r="F620" s="25"/>
+    </row>
+    <row r="621">
+      <c r="F621" s="25"/>
+    </row>
+    <row r="622">
+      <c r="F622" s="25"/>
+    </row>
+    <row r="623">
+      <c r="F623" s="25"/>
+    </row>
+    <row r="624">
+      <c r="F624" s="25"/>
+    </row>
+    <row r="625">
+      <c r="F625" s="25"/>
+    </row>
+    <row r="626">
+      <c r="F626" s="25"/>
+    </row>
+    <row r="627">
+      <c r="F627" s="25"/>
+    </row>
+    <row r="628">
+      <c r="F628" s="25"/>
+    </row>
+    <row r="629">
+      <c r="F629" s="25"/>
+    </row>
+    <row r="630">
+      <c r="F630" s="25"/>
+    </row>
+    <row r="631">
+      <c r="F631" s="25"/>
+    </row>
+    <row r="632">
+      <c r="F632" s="25"/>
+    </row>
+    <row r="633">
+      <c r="F633" s="25"/>
+    </row>
+    <row r="634">
+      <c r="F634" s="25"/>
+    </row>
+    <row r="635">
+      <c r="F635" s="25"/>
+    </row>
+    <row r="636">
+      <c r="F636" s="25"/>
+    </row>
+    <row r="637">
+      <c r="F637" s="25"/>
+    </row>
+    <row r="638">
+      <c r="F638" s="25"/>
+    </row>
+    <row r="639">
+      <c r="F639" s="25"/>
+    </row>
+    <row r="640">
+      <c r="F640" s="25"/>
+    </row>
+    <row r="641">
+      <c r="F641" s="25"/>
+    </row>
+    <row r="642">
+      <c r="F642" s="25"/>
+    </row>
+    <row r="643">
+      <c r="F643" s="25"/>
+    </row>
+    <row r="644">
+      <c r="F644" s="25"/>
+    </row>
+    <row r="645">
+      <c r="F645" s="25"/>
+    </row>
+    <row r="646">
+      <c r="F646" s="25"/>
+    </row>
+    <row r="647">
+      <c r="F647" s="25"/>
+    </row>
+    <row r="648">
+      <c r="F648" s="25"/>
+    </row>
+    <row r="649">
+      <c r="F649" s="25"/>
+    </row>
+    <row r="650">
+      <c r="F650" s="25"/>
+    </row>
+    <row r="651">
+      <c r="F651" s="25"/>
+    </row>
+    <row r="652">
+      <c r="F652" s="25"/>
+    </row>
+    <row r="653">
+      <c r="F653" s="25"/>
+    </row>
+    <row r="654">
+      <c r="F654" s="25"/>
+    </row>
+    <row r="655">
+      <c r="F655" s="25"/>
+    </row>
+    <row r="656">
+      <c r="F656" s="25"/>
+    </row>
+    <row r="657">
+      <c r="F657" s="25"/>
+    </row>
+    <row r="658">
+      <c r="F658" s="25"/>
+    </row>
+    <row r="659">
+      <c r="F659" s="25"/>
+    </row>
+    <row r="660">
+      <c r="F660" s="25"/>
+    </row>
+    <row r="661">
+      <c r="F661" s="25"/>
+    </row>
+    <row r="662">
+      <c r="F662" s="25"/>
+    </row>
+    <row r="663">
+      <c r="F663" s="25"/>
+    </row>
+    <row r="664">
+      <c r="F664" s="25"/>
+    </row>
+    <row r="665">
+      <c r="F665" s="25"/>
+    </row>
+    <row r="666">
+      <c r="F666" s="25"/>
+    </row>
+    <row r="667">
+      <c r="F667" s="25"/>
+    </row>
+    <row r="668">
+      <c r="F668" s="25"/>
+    </row>
+    <row r="669">
+      <c r="F669" s="25"/>
+    </row>
+    <row r="670">
+      <c r="F670" s="25"/>
+    </row>
+    <row r="671">
+      <c r="F671" s="25"/>
+    </row>
+    <row r="672">
+      <c r="F672" s="25"/>
+    </row>
+    <row r="673">
+      <c r="F673" s="25"/>
+    </row>
+    <row r="674">
+      <c r="F674" s="25"/>
+    </row>
+    <row r="675">
+      <c r="F675" s="25"/>
+    </row>
+    <row r="676">
+      <c r="F676" s="25"/>
+    </row>
+    <row r="677">
+      <c r="F677" s="25"/>
+    </row>
+    <row r="678">
+      <c r="F678" s="25"/>
+    </row>
+    <row r="679">
+      <c r="F679" s="25"/>
+    </row>
+    <row r="680">
+      <c r="F680" s="25"/>
+    </row>
+    <row r="681">
+      <c r="F681" s="25"/>
+    </row>
+    <row r="682">
+      <c r="F682" s="25"/>
+    </row>
+    <row r="683">
+      <c r="F683" s="25"/>
+    </row>
+    <row r="684">
+      <c r="F684" s="25"/>
+    </row>
+    <row r="685">
+      <c r="F685" s="25"/>
+    </row>
+    <row r="686">
+      <c r="F686" s="25"/>
+    </row>
+    <row r="687">
+      <c r="F687" s="25"/>
+    </row>
+    <row r="688">
+      <c r="F688" s="25"/>
+    </row>
+    <row r="689">
+      <c r="F689" s="25"/>
+    </row>
+    <row r="690">
+      <c r="F690" s="25"/>
+    </row>
+    <row r="691">
+      <c r="F691" s="25"/>
+    </row>
+    <row r="692">
+      <c r="F692" s="25"/>
+    </row>
+    <row r="693">
+      <c r="F693" s="25"/>
+    </row>
+    <row r="694">
+      <c r="F694" s="25"/>
+    </row>
+    <row r="695">
+      <c r="F695" s="25"/>
+    </row>
+    <row r="696">
+      <c r="F696" s="25"/>
+    </row>
+    <row r="697">
+      <c r="F697" s="25"/>
+    </row>
+    <row r="698">
+      <c r="F698" s="25"/>
+    </row>
+    <row r="699">
+      <c r="F699" s="25"/>
+    </row>
+    <row r="700">
+      <c r="F700" s="25"/>
+    </row>
+    <row r="701">
+      <c r="F701" s="25"/>
+    </row>
+    <row r="702">
+      <c r="F702" s="25"/>
+    </row>
+    <row r="703">
+      <c r="F703" s="25"/>
+    </row>
+    <row r="704">
+      <c r="F704" s="25"/>
+    </row>
+    <row r="705">
+      <c r="F705" s="25"/>
+    </row>
+    <row r="706">
+      <c r="F706" s="25"/>
+    </row>
+    <row r="707">
+      <c r="F707" s="25"/>
+    </row>
+    <row r="708">
+      <c r="F708" s="25"/>
+    </row>
+    <row r="709">
+      <c r="F709" s="25"/>
+    </row>
+    <row r="710">
+      <c r="F710" s="25"/>
+    </row>
+    <row r="711">
+      <c r="F711" s="25"/>
+    </row>
+    <row r="712">
+      <c r="F712" s="25"/>
+    </row>
+    <row r="713">
+      <c r="F713" s="25"/>
+    </row>
+    <row r="714">
+      <c r="F714" s="25"/>
+    </row>
+    <row r="715">
+      <c r="F715" s="25"/>
+    </row>
+    <row r="716">
+      <c r="F716" s="25"/>
+    </row>
+    <row r="717">
+      <c r="F717" s="25"/>
+    </row>
+    <row r="718">
+      <c r="F718" s="25"/>
+    </row>
+    <row r="719">
+      <c r="F719" s="25"/>
+    </row>
+    <row r="720">
+      <c r="F720" s="25"/>
+    </row>
+    <row r="721">
+      <c r="F721" s="25"/>
+    </row>
+    <row r="722">
+      <c r="F722" s="25"/>
+    </row>
+    <row r="723">
+      <c r="F723" s="25"/>
+    </row>
+    <row r="724">
+      <c r="F724" s="25"/>
+    </row>
+    <row r="725">
+      <c r="F725" s="25"/>
+    </row>
+    <row r="726">
+      <c r="F726" s="25"/>
+    </row>
+    <row r="727">
+      <c r="F727" s="25"/>
+    </row>
+    <row r="728">
+      <c r="F728" s="25"/>
+    </row>
+    <row r="729">
+      <c r="F729" s="25"/>
+    </row>
+    <row r="730">
+      <c r="F730" s="25"/>
+    </row>
+    <row r="731">
+      <c r="F731" s="25"/>
+    </row>
+    <row r="732">
+      <c r="F732" s="25"/>
+    </row>
+    <row r="733">
+      <c r="F733" s="25"/>
+    </row>
+    <row r="734">
+      <c r="F734" s="25"/>
+    </row>
+    <row r="735">
+      <c r="F735" s="25"/>
+    </row>
+    <row r="736">
+      <c r="F736" s="25"/>
+    </row>
+    <row r="737">
+      <c r="F737" s="25"/>
+    </row>
+    <row r="738">
+      <c r="F738" s="25"/>
+    </row>
+    <row r="739">
+      <c r="F739" s="25"/>
+    </row>
+    <row r="740">
+      <c r="F740" s="25"/>
+    </row>
+    <row r="741">
+      <c r="F741" s="25"/>
+    </row>
+    <row r="742">
+      <c r="F742" s="25"/>
+    </row>
+    <row r="743">
+      <c r="F743" s="25"/>
+    </row>
+    <row r="744">
+      <c r="F744" s="25"/>
+    </row>
+    <row r="745">
+      <c r="F745" s="25"/>
+    </row>
+    <row r="746">
+      <c r="F746" s="25"/>
+    </row>
+    <row r="747">
+      <c r="F747" s="25"/>
+    </row>
+    <row r="748">
+      <c r="F748" s="25"/>
+    </row>
+    <row r="749">
+      <c r="F749" s="25"/>
+    </row>
+    <row r="750">
+      <c r="F750" s="25"/>
+    </row>
+    <row r="751">
+      <c r="F751" s="25"/>
+    </row>
+    <row r="752">
+      <c r="F752" s="25"/>
+    </row>
+    <row r="753">
+      <c r="F753" s="25"/>
+    </row>
+    <row r="754">
+      <c r="F754" s="25"/>
+    </row>
+    <row r="755">
+      <c r="F755" s="25"/>
+    </row>
+    <row r="756">
+      <c r="F756" s="25"/>
+    </row>
+    <row r="757">
+      <c r="F757" s="25"/>
+    </row>
+    <row r="758">
+      <c r="F758" s="25"/>
+    </row>
+    <row r="759">
+      <c r="F759" s="25"/>
+    </row>
+    <row r="760">
+      <c r="F760" s="25"/>
+    </row>
+    <row r="761">
+      <c r="F761" s="25"/>
+    </row>
+    <row r="762">
+      <c r="F762" s="25"/>
+    </row>
+    <row r="763">
+      <c r="F763" s="25"/>
+    </row>
+    <row r="764">
+      <c r="F764" s="25"/>
+    </row>
+    <row r="765">
+      <c r="F765" s="25"/>
+    </row>
+    <row r="766">
+      <c r="F766" s="25"/>
+    </row>
+    <row r="767">
+      <c r="F767" s="25"/>
+    </row>
+    <row r="768">
+      <c r="F768" s="25"/>
+    </row>
+    <row r="769">
+      <c r="F769" s="25"/>
+    </row>
+    <row r="770">
+      <c r="F770" s="25"/>
+    </row>
+    <row r="771">
+      <c r="F771" s="25"/>
+    </row>
+    <row r="772">
+      <c r="F772" s="25"/>
+    </row>
+    <row r="773">
+      <c r="F773" s="25"/>
+    </row>
+    <row r="774">
+      <c r="F774" s="25"/>
+    </row>
+    <row r="775">
+      <c r="F775" s="25"/>
+    </row>
+    <row r="776">
+      <c r="F776" s="25"/>
+    </row>
+    <row r="777">
+      <c r="F777" s="25"/>
+    </row>
+    <row r="778">
+      <c r="F778" s="25"/>
+    </row>
+    <row r="779">
+      <c r="F779" s="25"/>
+    </row>
+    <row r="780">
+      <c r="F780" s="25"/>
+    </row>
+    <row r="781">
+      <c r="F781" s="25"/>
+    </row>
+    <row r="782">
+      <c r="F782" s="25"/>
+    </row>
+    <row r="783">
+      <c r="F783" s="25"/>
+    </row>
+    <row r="784">
+      <c r="F784" s="25"/>
+    </row>
+    <row r="785">
+      <c r="F785" s="25"/>
+    </row>
+    <row r="786">
+      <c r="F786" s="25"/>
+    </row>
+    <row r="787">
+      <c r="F787" s="25"/>
+    </row>
+    <row r="788">
+      <c r="F788" s="25"/>
+    </row>
+    <row r="789">
+      <c r="F789" s="25"/>
+    </row>
+    <row r="790">
+      <c r="F790" s="25"/>
+    </row>
+    <row r="791">
+      <c r="F791" s="25"/>
+    </row>
+    <row r="792">
+      <c r="F792" s="25"/>
+    </row>
+    <row r="793">
+      <c r="F793" s="25"/>
+    </row>
+    <row r="794">
+      <c r="F794" s="25"/>
+    </row>
+    <row r="795">
+      <c r="F795" s="25"/>
+    </row>
+    <row r="796">
+      <c r="F796" s="25"/>
+    </row>
+    <row r="797">
+      <c r="F797" s="25"/>
+    </row>
+    <row r="798">
+      <c r="F798" s="25"/>
+    </row>
+    <row r="799">
+      <c r="F799" s="25"/>
+    </row>
+    <row r="800">
+      <c r="F800" s="25"/>
+    </row>
+    <row r="801">
+      <c r="F801" s="25"/>
+    </row>
+    <row r="802">
+      <c r="F802" s="25"/>
+    </row>
+    <row r="803">
+      <c r="F803" s="25"/>
+    </row>
+    <row r="804">
+      <c r="F804" s="25"/>
+    </row>
+    <row r="805">
+      <c r="F805" s="25"/>
+    </row>
+    <row r="806">
+      <c r="F806" s="25"/>
+    </row>
+    <row r="807">
+      <c r="F807" s="25"/>
+    </row>
+    <row r="808">
+      <c r="F808" s="25"/>
+    </row>
+    <row r="809">
+      <c r="F809" s="25"/>
+    </row>
+    <row r="810">
+      <c r="F810" s="25"/>
+    </row>
+    <row r="811">
+      <c r="F811" s="25"/>
+    </row>
+    <row r="812">
+      <c r="F812" s="25"/>
+    </row>
+    <row r="813">
+      <c r="F813" s="25"/>
+    </row>
+    <row r="814">
+      <c r="F814" s="25"/>
+    </row>
+    <row r="815">
+      <c r="F815" s="25"/>
+    </row>
+    <row r="816">
+      <c r="F816" s="25"/>
+    </row>
+    <row r="817">
+      <c r="F817" s="25"/>
+    </row>
+    <row r="818">
+      <c r="F818" s="25"/>
+    </row>
+    <row r="819">
+      <c r="F819" s="25"/>
+    </row>
+    <row r="820">
+      <c r="F820" s="25"/>
+    </row>
+    <row r="821">
+      <c r="F821" s="25"/>
+    </row>
+    <row r="822">
+      <c r="F822" s="25"/>
+    </row>
+    <row r="823">
+      <c r="F823" s="25"/>
+    </row>
+    <row r="824">
+      <c r="F824" s="25"/>
+    </row>
+    <row r="825">
+      <c r="F825" s="25"/>
+    </row>
+    <row r="826">
+      <c r="F826" s="25"/>
+    </row>
+    <row r="827">
+      <c r="F827" s="25"/>
+    </row>
+    <row r="828">
+      <c r="F828" s="25"/>
+    </row>
+    <row r="829">
+      <c r="F829" s="25"/>
+    </row>
+    <row r="830">
+      <c r="F830" s="25"/>
+    </row>
+    <row r="831">
+      <c r="F831" s="25"/>
+    </row>
+    <row r="832">
+      <c r="F832" s="25"/>
+    </row>
+    <row r="833">
+      <c r="F833" s="25"/>
+    </row>
+    <row r="834">
+      <c r="F834" s="25"/>
+    </row>
+    <row r="835">
+      <c r="F835" s="25"/>
+    </row>
+    <row r="836">
+      <c r="F836" s="25"/>
+    </row>
+    <row r="837">
+      <c r="F837" s="25"/>
+    </row>
+    <row r="838">
+      <c r="F838" s="25"/>
+    </row>
+    <row r="839">
+      <c r="F839" s="25"/>
+    </row>
+    <row r="840">
+      <c r="F840" s="25"/>
+    </row>
+    <row r="841">
+      <c r="F841" s="25"/>
+    </row>
+    <row r="842">
+      <c r="F842" s="25"/>
+    </row>
+    <row r="843">
+      <c r="F843" s="25"/>
+    </row>
+    <row r="844">
+      <c r="F844" s="25"/>
+    </row>
+    <row r="845">
+      <c r="F845" s="25"/>
+    </row>
+    <row r="846">
+      <c r="F846" s="25"/>
+    </row>
+    <row r="847">
+      <c r="F847" s="25"/>
+    </row>
+    <row r="848">
+      <c r="F848" s="25"/>
+    </row>
+    <row r="849">
+      <c r="F849" s="25"/>
+    </row>
+    <row r="850">
+      <c r="F850" s="25"/>
+    </row>
+    <row r="851">
+      <c r="F851" s="25"/>
+    </row>
+    <row r="852">
+      <c r="F852" s="25"/>
+    </row>
+    <row r="853">
+      <c r="F853" s="25"/>
+    </row>
+    <row r="854">
+      <c r="F854" s="25"/>
+    </row>
+    <row r="855">
+      <c r="F855" s="25"/>
+    </row>
+    <row r="856">
+      <c r="F856" s="25"/>
+    </row>
+    <row r="857">
+      <c r="F857" s="25"/>
+    </row>
+    <row r="858">
+      <c r="F858" s="25"/>
+    </row>
+    <row r="859">
+      <c r="F859" s="25"/>
+    </row>
+    <row r="860">
+      <c r="F860" s="25"/>
+    </row>
+    <row r="861">
+      <c r="F861" s="25"/>
+    </row>
+    <row r="862">
+      <c r="F862" s="25"/>
+    </row>
+    <row r="863">
+      <c r="F863" s="25"/>
+    </row>
+    <row r="864">
+      <c r="F864" s="25"/>
+    </row>
+    <row r="865">
+      <c r="F865" s="25"/>
+    </row>
+    <row r="866">
+      <c r="F866" s="25"/>
+    </row>
+    <row r="867">
+      <c r="F867" s="25"/>
+    </row>
+    <row r="868">
+      <c r="F868" s="25"/>
+    </row>
+    <row r="869">
+      <c r="F869" s="25"/>
+    </row>
+    <row r="870">
+      <c r="F870" s="25"/>
+    </row>
+    <row r="871">
+      <c r="F871" s="25"/>
+    </row>
+    <row r="872">
+      <c r="F872" s="25"/>
+    </row>
+    <row r="873">
+      <c r="F873" s="25"/>
+    </row>
+    <row r="874">
+      <c r="F874" s="25"/>
+    </row>
+    <row r="875">
+      <c r="F875" s="25"/>
+    </row>
+    <row r="876">
+      <c r="F876" s="25"/>
+    </row>
+    <row r="877">
+      <c r="F877" s="25"/>
+    </row>
+    <row r="878">
+      <c r="F878" s="25"/>
+    </row>
+    <row r="879">
+      <c r="F879" s="25"/>
+    </row>
+    <row r="880">
+      <c r="F880" s="25"/>
+    </row>
+    <row r="881">
+      <c r="F881" s="25"/>
+    </row>
+    <row r="882">
+      <c r="F882" s="25"/>
+    </row>
+    <row r="883">
+      <c r="F883" s="25"/>
+    </row>
+    <row r="884">
+      <c r="F884" s="25"/>
+    </row>
+    <row r="885">
+      <c r="F885" s="25"/>
+    </row>
+    <row r="886">
+      <c r="F886" s="25"/>
+    </row>
+    <row r="887">
+      <c r="F887" s="25"/>
+    </row>
+    <row r="888">
+      <c r="F888" s="25"/>
+    </row>
+    <row r="889">
+      <c r="F889" s="25"/>
+    </row>
+    <row r="890">
+      <c r="F890" s="25"/>
+    </row>
+    <row r="891">
+      <c r="F891" s="25"/>
+    </row>
+    <row r="892">
+      <c r="F892" s="25"/>
+    </row>
+    <row r="893">
+      <c r="F893" s="25"/>
+    </row>
+    <row r="894">
+      <c r="F894" s="25"/>
+    </row>
+    <row r="895">
+      <c r="F895" s="25"/>
+    </row>
+    <row r="896">
+      <c r="F896" s="25"/>
+    </row>
+    <row r="897">
+      <c r="F897" s="25"/>
+    </row>
+    <row r="898">
+      <c r="F898" s="25"/>
+    </row>
+    <row r="899">
+      <c r="F899" s="25"/>
+    </row>
+    <row r="900">
+      <c r="F900" s="25"/>
+    </row>
+    <row r="901">
+      <c r="F901" s="25"/>
+    </row>
+    <row r="902">
+      <c r="F902" s="25"/>
+    </row>
+    <row r="903">
+      <c r="F903" s="25"/>
+    </row>
+    <row r="904">
+      <c r="F904" s="25"/>
+    </row>
+    <row r="905">
+      <c r="F905" s="25"/>
+    </row>
+    <row r="906">
+      <c r="F906" s="25"/>
+    </row>
+    <row r="907">
+      <c r="F907" s="25"/>
+    </row>
+    <row r="908">
+      <c r="F908" s="25"/>
+    </row>
+    <row r="909">
+      <c r="F909" s="25"/>
+    </row>
+    <row r="910">
+      <c r="F910" s="25"/>
+    </row>
+    <row r="911">
+      <c r="F911" s="25"/>
+    </row>
+    <row r="912">
+      <c r="F912" s="25"/>
+    </row>
+    <row r="913">
+      <c r="F913" s="25"/>
+    </row>
+    <row r="914">
+      <c r="F914" s="25"/>
+    </row>
+    <row r="915">
+      <c r="F915" s="25"/>
+    </row>
+    <row r="916">
+      <c r="F916" s="25"/>
+    </row>
+    <row r="917">
+      <c r="F917" s="25"/>
+    </row>
+    <row r="918">
+      <c r="F918" s="25"/>
+    </row>
+    <row r="919">
+      <c r="F919" s="25"/>
+    </row>
+    <row r="920">
+      <c r="F920" s="25"/>
+    </row>
+    <row r="921">
+      <c r="F921" s="25"/>
+    </row>
+    <row r="922">
+      <c r="F922" s="25"/>
+    </row>
+    <row r="923">
+      <c r="F923" s="25"/>
+    </row>
+    <row r="924">
+      <c r="F924" s="25"/>
+    </row>
+    <row r="925">
+      <c r="F925" s="25"/>
+    </row>
+    <row r="926">
+      <c r="F926" s="25"/>
+    </row>
+    <row r="927">
+      <c r="F927" s="25"/>
+    </row>
+    <row r="928">
+      <c r="F928" s="25"/>
+    </row>
+    <row r="929">
+      <c r="F929" s="25"/>
+    </row>
+    <row r="930">
+      <c r="F930" s="25"/>
+    </row>
+    <row r="931">
+      <c r="F931" s="25"/>
+    </row>
+    <row r="932">
+      <c r="F932" s="25"/>
+    </row>
+    <row r="933">
+      <c r="F933" s="25"/>
+    </row>
+    <row r="934">
+      <c r="F934" s="25"/>
+    </row>
+    <row r="935">
+      <c r="F935" s="25"/>
+    </row>
+    <row r="936">
+      <c r="F936" s="25"/>
+    </row>
+    <row r="937">
+      <c r="F937" s="25"/>
+    </row>
+    <row r="938">
+      <c r="F938" s="25"/>
+    </row>
+    <row r="939">
+      <c r="F939" s="25"/>
+    </row>
+    <row r="940">
+      <c r="F940" s="25"/>
+    </row>
+    <row r="941">
+      <c r="F941" s="25"/>
+    </row>
+    <row r="942">
+      <c r="F942" s="25"/>
+    </row>
+    <row r="943">
+      <c r="F943" s="25"/>
+    </row>
+    <row r="944">
+      <c r="F944" s="25"/>
+    </row>
+    <row r="945">
+      <c r="F945" s="25"/>
+    </row>
+    <row r="946">
+      <c r="F946" s="25"/>
+    </row>
+    <row r="947">
+      <c r="F947" s="25"/>
+    </row>
+    <row r="948">
+      <c r="F948" s="25"/>
+    </row>
+    <row r="949">
+      <c r="F949" s="25"/>
+    </row>
+    <row r="950">
+      <c r="F950" s="25"/>
+    </row>
+    <row r="951">
+      <c r="F951" s="25"/>
+    </row>
+    <row r="952">
+      <c r="F952" s="25"/>
+    </row>
+    <row r="953">
+      <c r="F953" s="25"/>
+    </row>
+    <row r="954">
+      <c r="F954" s="25"/>
+    </row>
+    <row r="955">
+      <c r="F955" s="25"/>
+    </row>
+    <row r="956">
+      <c r="F956" s="25"/>
+    </row>
+    <row r="957">
+      <c r="F957" s="25"/>
+    </row>
+    <row r="958">
+      <c r="F958" s="25"/>
+    </row>
+    <row r="959">
+      <c r="F959" s="25"/>
+    </row>
+    <row r="960">
+      <c r="F960" s="25"/>
+    </row>
+    <row r="961">
+      <c r="F961" s="25"/>
+    </row>
+    <row r="962">
+      <c r="F962" s="25"/>
+    </row>
+    <row r="963">
+      <c r="F963" s="25"/>
+    </row>
+    <row r="964">
+      <c r="F964" s="25"/>
+    </row>
+    <row r="965">
+      <c r="F965" s="25"/>
+    </row>
+    <row r="966">
+      <c r="F966" s="25"/>
+    </row>
+    <row r="967">
+      <c r="F967" s="25"/>
+    </row>
+    <row r="968">
+      <c r="F968" s="25"/>
+    </row>
+    <row r="969">
+      <c r="F969" s="25"/>
+    </row>
+    <row r="970">
+      <c r="F970" s="25"/>
+    </row>
+    <row r="971">
+      <c r="F971" s="25"/>
+    </row>
+    <row r="972">
+      <c r="F972" s="25"/>
+    </row>
+    <row r="973">
+      <c r="F973" s="25"/>
+    </row>
+    <row r="974">
+      <c r="F974" s="25"/>
+    </row>
+    <row r="975">
+      <c r="F975" s="25"/>
+    </row>
+    <row r="976">
+      <c r="F976" s="25"/>
+    </row>
+    <row r="977">
+      <c r="F977" s="25"/>
+    </row>
+    <row r="978">
+      <c r="F978" s="25"/>
+    </row>
+    <row r="979">
+      <c r="F979" s="25"/>
+    </row>
+    <row r="980">
+      <c r="F980" s="25"/>
+    </row>
+    <row r="981">
+      <c r="F981" s="25"/>
+    </row>
+    <row r="982">
+      <c r="F982" s="25"/>
+    </row>
+    <row r="983">
+      <c r="F983" s="25"/>
+    </row>
+    <row r="984">
+      <c r="F984" s="25"/>
+    </row>
+    <row r="985">
+      <c r="F985" s="25"/>
+    </row>
+    <row r="986">
+      <c r="F986" s="25"/>
+    </row>
+    <row r="987">
+      <c r="F987" s="25"/>
+    </row>
+    <row r="988">
+      <c r="F988" s="25"/>
+    </row>
+    <row r="989">
+      <c r="F989" s="25"/>
+    </row>
+    <row r="990">
+      <c r="F990" s="25"/>
+    </row>
+    <row r="991">
+      <c r="F991" s="25"/>
+    </row>
+    <row r="992">
+      <c r="F992" s="25"/>
+    </row>
+    <row r="993">
+      <c r="F993" s="25"/>
+    </row>
+    <row r="994">
+      <c r="F994" s="25"/>
+    </row>
+    <row r="995">
+      <c r="F995" s="25"/>
+    </row>
+    <row r="996">
+      <c r="F996" s="25"/>
+    </row>
+    <row r="997">
+      <c r="F997" s="25"/>
+    </row>
+    <row r="998">
+      <c r="F998" s="25"/>
+    </row>
+    <row r="999">
+      <c r="F999" s="25"/>
+    </row>
+    <row r="1000">
+      <c r="F1000" s="25"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>